--- a/apps/load_data/2019/12/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/12/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2019\HHY1219\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\HHY1219\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E2F49AA-E027-4235-9A59-C207012507A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE54340-8A10-4222-897F-976A4C27C323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$271</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$271</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11391" uniqueCount="3323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11369" uniqueCount="3320">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7243,9 +7244,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8551,9 +8549,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8909,9 +8904,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9997,7 +9989,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10837,10 +10829,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD248" sqref="AC176:AD248"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43338,12 +43332,7 @@
       <c r="AB176" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -43396,16 +43385,16 @@
         <v>19</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH176" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="BI176" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="BI176" s="1" t="s">
-        <v>2409</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>116</v>
@@ -43420,13 +43409,13 @@
         <v>157</v>
       </c>
       <c r="BR176" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BS176" s="3">
         <v>36225</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>120</v>
@@ -43447,19 +43436,19 @@
         <v>101</v>
       </c>
       <c r="CC176" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="CD176" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="CD176" s="1" t="s">
+      <c r="CE176" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CG176" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="CG176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>128</v>
@@ -43497,13 +43486,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -43535,12 +43524,7 @@
       <c r="AB177" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -43587,7 +43571,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BB177" s="1">
         <v>12</v>
@@ -43596,16 +43580,16 @@
         <v>19</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="BM177" s="1" t="s">
         <v>116</v>
@@ -43617,13 +43601,13 @@
         <v>102</v>
       </c>
       <c r="BR177" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BS177" s="3">
         <v>36949</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>120</v>
@@ -43647,19 +43631,19 @@
         <v>101</v>
       </c>
       <c r="CC177" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="CD177" s="1" t="s">
         <v>2081</v>
       </c>
       <c r="CE177" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="CG177" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="CG177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2429</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>128</v>
@@ -43697,13 +43681,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2432</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -43735,12 +43719,7 @@
       <c r="AB178" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -43787,7 +43766,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BB178" s="1">
         <v>12</v>
@@ -43796,16 +43775,16 @@
         <v>19</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH178" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="BI178" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="BI178" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="BM178" s="1" t="s">
         <v>116</v>
@@ -43820,13 +43799,13 @@
         <v>157</v>
       </c>
       <c r="BR178" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BS178" s="3">
         <v>36825</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>120</v>
@@ -43850,19 +43829,19 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="CD178" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="CD178" s="1" t="s">
+      <c r="CE178" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="CG178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>128</v>
@@ -43900,13 +43879,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2446</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -43935,12 +43914,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -43990,7 +43964,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BB179" s="1">
         <v>12</v>
@@ -43999,13 +43973,13 @@
         <v>19</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>586</v>
@@ -44017,7 +43991,7 @@
         <v>105</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>120</v>
@@ -44035,16 +44009,16 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="CD179" s="1" t="s">
         <v>1275</v>
       </c>
       <c r="CE179" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="CG179" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2453</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>592</v>
@@ -44085,13 +44059,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -44123,12 +44097,7 @@
       <c r="AB180" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -44178,7 +44147,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BB180" s="1">
         <v>12</v>
@@ -44187,13 +44156,13 @@
         <v>19</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>382</v>
@@ -44205,7 +44174,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>120</v>
@@ -44226,13 +44195,13 @@
         <v>692</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2461</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2462</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2463</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>390</v>
@@ -44273,13 +44242,13 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -44308,12 +44277,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -44363,7 +44327,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BB181" s="1">
         <v>12</v>
@@ -44372,13 +44336,13 @@
         <v>19</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>981</v>
@@ -44390,7 +44354,7 @@
         <v>105</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>120</v>
@@ -44408,16 +44372,16 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="CD181" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="CE181" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="CD181" s="1" t="s">
-        <v>2471</v>
-      </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>986</v>
@@ -44458,13 +44422,13 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -44499,12 +44463,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -44551,7 +44510,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BB182" s="1">
         <v>12</v>
@@ -44560,13 +44519,13 @@
         <v>19</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>436</v>
@@ -44581,13 +44540,13 @@
         <v>117</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BS182" s="3">
         <v>35243</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>120</v>
@@ -44605,16 +44564,16 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="CD182" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="CD182" s="1" t="s">
+      <c r="CE182" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="CE182" s="1" t="s">
+      <c r="CG182" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="CG182" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="CH182" s="1" t="s">
         <v>442</v>
@@ -44655,13 +44614,13 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2488</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -44690,12 +44649,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -44745,7 +44699,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BB183" s="1">
         <v>12</v>
@@ -44754,13 +44708,13 @@
         <v>19</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>981</v>
@@ -44772,7 +44726,7 @@
         <v>105</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>120</v>
@@ -44790,16 +44744,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="CD183" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="CD183" s="1" t="s">
+      <c r="CE183" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CG183" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>986</v>
@@ -44840,13 +44794,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -44875,12 +44829,7 @@
       <c r="AA184" s="1">
         <v>0</v>
       </c>
-      <c r="AC184" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD184" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC184" s="3"/>
       <c r="AF184" s="1" t="s">
         <v>106</v>
       </c>
@@ -44930,7 +44879,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BB184" s="1">
         <v>12</v>
@@ -44939,13 +44888,13 @@
         <v>19</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>981</v>
@@ -44960,7 +44909,7 @@
         <v>157</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>120</v>
@@ -44978,16 +44927,16 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="CD184" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="CD184" s="1" t="s">
+      <c r="CE184" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2507</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>986</v>
@@ -45028,13 +44977,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -45063,12 +45012,7 @@
       <c r="AA185" s="1">
         <v>0</v>
       </c>
-      <c r="AC185" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD185" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC185" s="3"/>
       <c r="AF185" s="1" t="s">
         <v>106</v>
       </c>
@@ -45115,7 +45059,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BB185" s="1">
         <v>12</v>
@@ -45124,13 +45068,13 @@
         <v>19</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>464</v>
@@ -45145,13 +45089,13 @@
         <v>217</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BS185" s="3">
         <v>34307</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>120</v>
@@ -45169,16 +45113,16 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="CD185" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE185" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="CG185" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>471</v>
@@ -45219,13 +45163,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -45257,12 +45201,7 @@
       <c r="AA186" s="1">
         <v>0</v>
       </c>
-      <c r="AC186" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD186" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC186" s="3"/>
       <c r="AF186" s="1" t="s">
         <v>106</v>
       </c>
@@ -45312,7 +45251,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BB186" s="1">
         <v>12</v>
@@ -45321,13 +45260,13 @@
         <v>19</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>382</v>
@@ -45339,7 +45278,7 @@
         <v>105</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>120</v>
@@ -45360,16 +45299,16 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>390</v>
@@ -45410,13 +45349,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -45445,12 +45384,7 @@
       <c r="AA187" s="1">
         <v>0</v>
       </c>
-      <c r="AC187" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD187" s="1" t="s">
-        <v>2406</v>
-      </c>
+      <c r="AC187" s="3"/>
       <c r="AF187" s="1" t="s">
         <v>106</v>
       </c>
@@ -45497,7 +45431,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BB187" s="1">
         <v>12</v>
@@ -45506,16 +45440,16 @@
         <v>19</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2536</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>116</v>
@@ -45527,13 +45461,13 @@
         <v>117</v>
       </c>
       <c r="BR187" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BS187" s="3">
         <v>35950</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>120</v>
@@ -45551,19 +45485,19 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="CD187" s="1" t="s">
         <v>1873</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="CG187" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="CG187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="CH187" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="CI187" s="1" t="s">
         <v>128</v>
@@ -45583,7 +45517,7 @@
         <v>206</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>101</v>
@@ -45595,16 +45529,16 @@
         <v>94</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="L188" s="1" t="s">
-        <v>2546</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>1701</v>
@@ -45673,7 +45607,7 @@
         <v>0</v>
       </c>
       <c r="BZ188" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="CA188" s="1" t="s">
         <v>122</v>
@@ -45685,7 +45619,7 @@
         <v>2280</v>
       </c>
       <c r="CE188" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="189" spans="1:87" x14ac:dyDescent="0.25">
@@ -45720,13 +45654,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -45807,7 +45741,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BB189" s="1">
         <v>12</v>
@@ -45816,13 +45750,13 @@
         <v>19</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BI189" s="1" t="s">
         <v>1951</v>
@@ -45837,7 +45771,7 @@
         <v>157</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>120</v>
@@ -45855,16 +45789,16 @@
         <v>101</v>
       </c>
       <c r="CC189" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="CD189" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE189" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="CG189" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>1958</v>
@@ -45905,13 +45839,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -45986,7 +45920,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BB190" s="1">
         <v>12</v>
@@ -45995,16 +45929,16 @@
         <v>19</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2563</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2564</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>116</v>
@@ -46016,13 +45950,13 @@
         <v>217</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BS190" s="3">
         <v>36099</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>120</v>
@@ -46040,19 +45974,19 @@
         <v>101</v>
       </c>
       <c r="CC190" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="CD190" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="CD190" s="1" t="s">
+      <c r="CE190" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="CG190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>128</v>
@@ -46090,13 +46024,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2573</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2574</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46171,7 +46105,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BB191" s="1">
         <v>12</v>
@@ -46180,16 +46114,16 @@
         <v>19</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="BM191" s="1" t="s">
         <v>116</v>
@@ -46201,13 +46135,13 @@
         <v>102</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BS191" s="3">
         <v>37735</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>120</v>
@@ -46225,19 +46159,19 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="CD191" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="CD191" s="1" t="s">
+      <c r="CE191" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CG191" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="CG191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>128</v>
@@ -46275,13 +46209,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -46359,7 +46293,7 @@
         <v>101</v>
       </c>
       <c r="AZ192" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BB192" s="1">
         <v>12</v>
@@ -46368,13 +46302,13 @@
         <v>19</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>382</v>
@@ -46386,7 +46320,7 @@
         <v>105</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>120</v>
@@ -46404,16 +46338,16 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="CD192" s="1" t="s">
         <v>903</v>
       </c>
       <c r="CE192" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="CG192" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>390</v>
@@ -46454,13 +46388,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46493,7 +46427,7 @@
         <v>106</v>
       </c>
       <c r="AG193" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="AH193" s="1" t="s">
         <v>2000</v>
@@ -46538,7 +46472,7 @@
         <v>101</v>
       </c>
       <c r="AZ193" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BB193" s="1">
         <v>12</v>
@@ -46547,13 +46481,13 @@
         <v>19</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>116</v>
@@ -46562,7 +46496,7 @@
         <v>105</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>120</v>
@@ -46583,13 +46517,13 @@
         <v>1652</v>
       </c>
       <c r="CD193" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="CE193" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>128</v>
@@ -46630,13 +46564,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2608</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2609</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -46714,7 +46648,7 @@
         <v>101</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BB194" s="1">
         <v>12</v>
@@ -46723,16 +46657,16 @@
         <v>19</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>116</v>
@@ -46744,13 +46678,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="BS194" s="3">
         <v>43602</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>120</v>
@@ -46774,13 +46708,13 @@
         <v>995</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="CG194" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>128</v>
@@ -46818,13 +46752,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2620</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2621</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -46902,7 +46836,7 @@
         <v>101</v>
       </c>
       <c r="AZ195" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BB195" s="1">
         <v>12</v>
@@ -46911,13 +46845,13 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>981</v>
@@ -46929,7 +46863,7 @@
         <v>105</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>120</v>
@@ -46947,16 +46881,16 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2629</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>986</v>
@@ -46994,16 +46928,16 @@
         <v>1613</v>
       </c>
       <c r="J196" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="K196" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="K196" s="1" t="s">
+      <c r="L196" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47042,7 +46976,7 @@
         <v>42247</v>
       </c>
       <c r="AD196" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="AF196" s="1" t="s">
         <v>106</v>
@@ -47096,16 +47030,16 @@
         <v>19</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2636</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2637</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>116</v>
@@ -47117,13 +47051,13 @@
         <v>217</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BS196" s="3">
         <v>36580</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>120</v>
@@ -47135,7 +47069,7 @@
         <v>0</v>
       </c>
       <c r="BZ196" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="CA196" s="1" t="s">
         <v>122</v>
@@ -47144,7 +47078,7 @@
         <v>101</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>292</v>
@@ -47153,10 +47087,10 @@
         <v>1682</v>
       </c>
       <c r="CG196" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="CH196" s="1" t="s">
         <v>2642</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2643</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>128</v>
@@ -47194,13 +47128,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47281,13 +47215,13 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>1951</v>
@@ -47302,13 +47236,13 @@
         <v>117</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BS197" s="3">
         <v>37747</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>120</v>
@@ -47332,10 +47266,10 @@
         <v>679</v>
       </c>
       <c r="CE197" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="CG197" s="1" t="s">
         <v>2651</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2652</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>1958</v>
@@ -47376,13 +47310,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47466,13 +47400,13 @@
         <v>19</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>870</v>
@@ -47484,7 +47418,7 @@
         <v>105</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>120</v>
@@ -47502,16 +47436,16 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2661</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2662</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>875</v>
@@ -47552,13 +47486,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2665</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47642,13 +47576,13 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>981</v>
@@ -47660,7 +47594,7 @@
         <v>105</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>120</v>
@@ -47678,16 +47612,16 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2671</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2672</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>986</v>
@@ -47728,13 +47662,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2674</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2675</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -47815,16 +47749,16 @@
         <v>19</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH200" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="BI200" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>116</v>
@@ -47836,13 +47770,13 @@
         <v>102</v>
       </c>
       <c r="BR200" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BS200" s="3">
         <v>37334</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>120</v>
@@ -47863,16 +47797,16 @@
         <v>522</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="CG200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2684</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>128</v>
@@ -47910,13 +47844,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2686</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2687</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -47997,16 +47931,16 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH201" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="BI201" s="1" t="s">
         <v>2689</v>
-      </c>
-      <c r="BI201" s="1" t="s">
-        <v>2690</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>116</v>
@@ -48018,13 +47952,13 @@
         <v>102</v>
       </c>
       <c r="BR201" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BS201" s="3">
         <v>37904</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>120</v>
@@ -48045,16 +47979,16 @@
         <v>995</v>
       </c>
       <c r="CD201" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="CG201" s="1" t="s">
+      <c r="CH201" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>128</v>
@@ -48092,13 +48026,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2698</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48179,13 +48113,13 @@
         <v>19</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>382</v>
@@ -48200,13 +48134,13 @@
         <v>117</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BS202" s="3">
         <v>36111</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>120</v>
@@ -48224,16 +48158,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>1187</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2705</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2706</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>390</v>
@@ -48274,13 +48208,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2708</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2709</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48361,16 +48295,16 @@
         <v>19</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2711</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2712</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>116</v>
@@ -48382,13 +48316,13 @@
         <v>117</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BS203" s="3">
         <v>37785</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>120</v>
@@ -48406,19 +48340,19 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="CG203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2718</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>128</v>
@@ -48456,13 +48390,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2721</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2722</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48546,16 +48480,16 @@
         <v>19</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>116</v>
@@ -48564,7 +48498,7 @@
         <v>105</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>120</v>
@@ -48585,16 +48519,16 @@
         <v>1311</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2727</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2729</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2730</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>128</v>
@@ -48632,13 +48566,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2732</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2733</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -48716,7 +48650,7 @@
         <v>101</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="BB205" s="1">
         <v>12</v>
@@ -48725,13 +48659,13 @@
         <v>19</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>870</v>
@@ -48743,7 +48677,7 @@
         <v>105</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>120</v>
@@ -48761,16 +48695,16 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>875</v>
@@ -48811,13 +48745,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2744</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -48895,7 +48829,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BB206" s="1">
         <v>12</v>
@@ -48904,13 +48838,13 @@
         <v>19</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>1951</v>
@@ -48922,7 +48856,7 @@
         <v>105</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>120</v>
@@ -48940,16 +48874,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="CD206" s="1" t="s">
         <v>1163</v>
       </c>
       <c r="CE206" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="CG206" s="1" t="s">
         <v>2749</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2750</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>1958</v>
@@ -48990,13 +48924,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49074,7 +49008,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BB207" s="1">
         <v>12</v>
@@ -49083,13 +49017,13 @@
         <v>19</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>382</v>
@@ -49101,7 +49035,7 @@
         <v>105</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>120</v>
@@ -49122,13 +49056,13 @@
         <v>1163</v>
       </c>
       <c r="CD207" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="CE207" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2759</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2760</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>390</v>
@@ -49169,13 +49103,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2763</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49253,7 +49187,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="BB208" s="1">
         <v>12</v>
@@ -49262,16 +49196,16 @@
         <v>19</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2766</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2767</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>116</v>
@@ -49286,13 +49220,13 @@
         <v>157</v>
       </c>
       <c r="BR208" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="BS208" s="3">
         <v>37513</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>120</v>
@@ -49310,19 +49244,19 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="CD208" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE208" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="CG208" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="CG208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2772</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>128</v>
@@ -49360,13 +49294,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2775</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2776</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -49447,16 +49381,16 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="BG209" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2778</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2779</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>116</v>
@@ -49468,13 +49402,13 @@
         <v>102</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BS209" s="3">
         <v>41024</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>120</v>
@@ -49492,19 +49426,19 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="CG209" s="1" t="s">
+      <c r="CH209" s="1" t="s">
         <v>2785</v>
-      </c>
-      <c r="CH209" s="1" t="s">
-        <v>2786</v>
       </c>
       <c r="CI209" s="1" t="s">
         <v>128</v>
@@ -49542,13 +49476,13 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2788</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2789</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -49581,7 +49515,7 @@
         <v>106</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>2000</v>
@@ -49626,7 +49560,7 @@
         <v>101</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BB210" s="1">
         <v>12</v>
@@ -49635,13 +49569,13 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="BG210" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>2013</v>
@@ -49656,13 +49590,13 @@
         <v>117</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BS210" s="3">
         <v>34808</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>120</v>
@@ -49680,16 +49614,16 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CG210" s="1" t="s">
         <v>2797</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2798</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>2019</v>
@@ -49730,13 +49664,13 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2800</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2801</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
@@ -49811,7 +49745,7 @@
         <v>101</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BB211" s="1">
         <v>12</v>
@@ -49820,13 +49754,13 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BG211" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>968</v>
@@ -49841,13 +49775,13 @@
         <v>102</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BS211" s="3">
         <v>37336</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>120</v>
@@ -49865,16 +49799,16 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="CE211" s="1" t="s">
+      <c r="CG211" s="1" t="s">
         <v>2809</v>
-      </c>
-      <c r="CG211" s="1" t="s">
-        <v>2810</v>
       </c>
       <c r="CH211" s="1" t="s">
         <v>974</v>
@@ -49915,13 +49849,13 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2812</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2813</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
@@ -49999,7 +49933,7 @@
         <v>101</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BB212" s="1">
         <v>12</v>
@@ -50008,16 +49942,16 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="BG212" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2816</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2817</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>116</v>
@@ -50026,7 +49960,7 @@
         <v>105</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>120</v>
@@ -50044,19 +49978,19 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="CE212" s="1" t="s">
+      <c r="CG212" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="CG212" s="1" t="s">
+      <c r="CH212" s="1" t="s">
         <v>2822</v>
-      </c>
-      <c r="CH212" s="1" t="s">
-        <v>2823</v>
       </c>
       <c r="CI212" s="1" t="s">
         <v>128</v>
@@ -50094,13 +50028,13 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2824</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2825</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2826</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
@@ -50184,13 +50118,13 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="BG213" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>116</v>
@@ -50199,7 +50133,7 @@
         <v>105</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>120</v>
@@ -50217,16 +50151,16 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="CD213" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="CD213" s="1" t="s">
+      <c r="CE213" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CG213" s="1" t="s">
         <v>2832</v>
-      </c>
-      <c r="CG213" s="1" t="s">
-        <v>2833</v>
       </c>
       <c r="CH213" s="1" t="s">
         <v>128</v>
@@ -50249,7 +50183,7 @@
         <v>90</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -50261,16 +50195,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2836</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>2837</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -50339,7 +50273,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>122</v>
@@ -50351,7 +50285,7 @@
         <v>2280</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -50386,13 +50320,13 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2839</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2840</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2841</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
@@ -50427,12 +50361,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2842</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>106</v>
       </c>
@@ -50482,7 +50411,7 @@
         <v>101</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="BB215" s="1">
         <v>12</v>
@@ -50491,16 +50420,16 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="BI215" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>116</v>
@@ -50509,7 +50438,7 @@
         <v>105</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>120</v>
@@ -50533,16 +50462,16 @@
         <v>1214</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="CG215" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="CG215" s="1" t="s">
-        <v>2850</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>128</v>
@@ -50580,10 +50509,10 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -50607,7 +50536,7 @@
         <v>106</v>
       </c>
       <c r="AG216" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="AH216" s="1" t="s">
         <v>61</v>
@@ -50652,7 +50581,7 @@
         <v>0</v>
       </c>
       <c r="BZ216" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="CA216" s="1" t="s">
         <v>122</v>
@@ -50664,7 +50593,7 @@
         <v>2280</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -50699,10 +50628,10 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>110</v>
@@ -50783,7 +50712,7 @@
         <v>2280</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="218" spans="1:87" x14ac:dyDescent="0.25">
@@ -50800,7 +50729,7 @@
         <v>90</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>92</v>
@@ -50812,16 +50741,16 @@
         <v>94</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>110</v>
@@ -50890,7 +50819,7 @@
         <v>0</v>
       </c>
       <c r="BZ218" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="CA218" s="1" t="s">
         <v>122</v>
@@ -50902,7 +50831,7 @@
         <v>2280</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="219" spans="1:87" x14ac:dyDescent="0.25">
@@ -50937,10 +50866,10 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>110</v>
@@ -50964,7 +50893,7 @@
         <v>106</v>
       </c>
       <c r="AG219" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="AH219" s="1" t="s">
         <v>378</v>
@@ -51021,7 +50950,7 @@
         <v>2280</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="220" spans="1:87" x14ac:dyDescent="0.25">
@@ -51056,10 +50985,10 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>110</v>
@@ -51083,7 +51012,7 @@
         <v>106</v>
       </c>
       <c r="AG220" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="AH220" s="1" t="s">
         <v>378</v>
@@ -51140,7 +51069,7 @@
         <v>2280</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="221" spans="1:87" x14ac:dyDescent="0.25">
@@ -51175,10 +51104,10 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>110</v>
@@ -51202,7 +51131,7 @@
         <v>106</v>
       </c>
       <c r="AG221" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="AH221" s="1" t="s">
         <v>378</v>
@@ -51259,7 +51188,7 @@
         <v>2280</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="222" spans="1:87" x14ac:dyDescent="0.25">
@@ -51294,10 +51223,10 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>110</v>
@@ -51321,7 +51250,7 @@
         <v>106</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>378</v>
@@ -51378,7 +51307,7 @@
         <v>2280</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="223" spans="1:87" x14ac:dyDescent="0.25">
@@ -51413,10 +51342,10 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>110</v>
@@ -51497,7 +51426,7 @@
         <v>2280</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="224" spans="1:87" x14ac:dyDescent="0.25">
@@ -51532,10 +51461,10 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>110</v>
@@ -51616,7 +51545,7 @@
         <v>2280</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="225" spans="1:87" x14ac:dyDescent="0.25">
@@ -51651,10 +51580,10 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>110</v>
@@ -51735,7 +51664,7 @@
         <v>2280</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="226" spans="1:87" x14ac:dyDescent="0.25">
@@ -51770,10 +51699,10 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>110</v>
@@ -51854,7 +51783,7 @@
         <v>2280</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="227" spans="1:87" x14ac:dyDescent="0.25">
@@ -51889,13 +51818,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="N227" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2879</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -51924,12 +51853,7 @@
       <c r="AA227" s="1">
         <v>0</v>
       </c>
-      <c r="AC227" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD227" s="1" t="s">
-        <v>2842</v>
-      </c>
+      <c r="AC227" s="3"/>
       <c r="AF227" s="1" t="s">
         <v>106</v>
       </c>
@@ -51982,13 +51906,13 @@
         <v>19</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="BG227" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="BI227" s="1" t="s">
         <v>870</v>
@@ -52003,13 +51927,13 @@
         <v>102</v>
       </c>
       <c r="BR227" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="BS227" s="3">
         <v>36306</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>120</v>
@@ -52027,16 +51951,16 @@
         <v>101</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2884</v>
       </c>
-      <c r="CD227" s="1" t="s">
+      <c r="CG227" s="1" t="s">
         <v>2885</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2886</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2887</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>875</v>
@@ -52077,13 +52001,13 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="N228" s="1" t="s">
         <v>2888</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2889</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2890</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>100</v>
@@ -52112,12 +52036,7 @@
       <c r="AA228" s="1">
         <v>0</v>
       </c>
-      <c r="AC228" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD228" s="1" t="s">
-        <v>2842</v>
-      </c>
+      <c r="AC228" s="3"/>
       <c r="AF228" s="1" t="s">
         <v>106</v>
       </c>
@@ -52173,13 +52092,13 @@
         <v>19</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="BG228" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="BI228" s="1" t="s">
         <v>382</v>
@@ -52191,7 +52110,7 @@
         <v>105</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>120</v>
@@ -52209,16 +52128,16 @@
         <v>101</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>390</v>
@@ -52259,13 +52178,13 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="N229" s="1" t="s">
         <v>2897</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2899</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>100</v>
@@ -52297,12 +52216,7 @@
       <c r="AB229" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC229" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD229" s="1" t="s">
-        <v>2842</v>
-      </c>
+      <c r="AC229" s="3"/>
       <c r="AF229" s="1" t="s">
         <v>106</v>
       </c>
@@ -52355,13 +52269,13 @@
         <v>19</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="BG229" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1951</v>
@@ -52376,13 +52290,13 @@
         <v>102</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="BS229" s="3">
         <v>38234</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>120</v>
@@ -52400,16 +52314,16 @@
         <v>101</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>1958</v>
@@ -52450,13 +52364,13 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="N230" s="1" t="s">
         <v>2907</v>
-      </c>
-      <c r="L230" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2909</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>100</v>
@@ -52485,12 +52399,7 @@
       <c r="AA230" s="1">
         <v>0</v>
       </c>
-      <c r="AC230" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD230" s="1" t="s">
-        <v>2842</v>
-      </c>
+      <c r="AC230" s="3"/>
       <c r="AF230" s="1" t="s">
         <v>106</v>
       </c>
@@ -52546,13 +52455,13 @@
         <v>19</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>968</v>
@@ -52564,7 +52473,7 @@
         <v>105</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>120</v>
@@ -52582,16 +52491,16 @@
         <v>101</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="CD230" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="CE230" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CG230" s="1" t="s">
         <v>2914</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="CG230" s="1" t="s">
-        <v>2916</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>974</v>
@@ -52632,13 +52541,13 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="N231" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2919</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>100</v>
@@ -52670,12 +52579,7 @@
       <c r="AB231" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC231" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD231" s="1" t="s">
-        <v>2842</v>
-      </c>
+      <c r="AC231" s="3"/>
       <c r="AE231" s="3">
         <v>43611</v>
       </c>
@@ -52734,13 +52638,13 @@
         <v>19</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="BG231" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>116</v>
@@ -52749,7 +52653,7 @@
         <v>105</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>120</v>
@@ -52767,16 +52671,16 @@
         <v>101</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="CD231" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="CE231" s="1" t="s">
         <v>2923</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CG231" s="1" t="s">
         <v>2924</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="CG231" s="1" t="s">
-        <v>2926</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>128</v>
@@ -52817,13 +52721,13 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="N232" s="1" t="s">
         <v>2927</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>2928</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2929</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>100</v>
@@ -52852,12 +52756,7 @@
       <c r="AA232" s="1">
         <v>0</v>
       </c>
-      <c r="AC232" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD232" s="1" t="s">
-        <v>2842</v>
-      </c>
+      <c r="AC232" s="3"/>
       <c r="AF232" s="1" t="s">
         <v>106</v>
       </c>
@@ -52910,16 +52809,16 @@
         <v>19</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="BG232" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BI232" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>116</v>
@@ -52931,13 +52830,13 @@
         <v>217</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="BS232" s="3">
         <v>37069</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>120</v>
@@ -52958,16 +52857,16 @@
         <v>774</v>
       </c>
       <c r="CD232" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="CE232" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="CG232" s="1" t="s">
         <v>2935</v>
       </c>
-      <c r="CE232" s="1" t="s">
+      <c r="CH232" s="1" t="s">
         <v>2936</v>
-      </c>
-      <c r="CG232" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="CH232" s="1" t="s">
-        <v>2938</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>128</v>
@@ -53005,13 +52904,13 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="N233" s="1" t="s">
         <v>2939</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2941</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>100</v>
@@ -53040,12 +52939,7 @@
       <c r="AA233" s="1">
         <v>0</v>
       </c>
-      <c r="AC233" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD233" s="1" t="s">
-        <v>2842</v>
-      </c>
+      <c r="AC233" s="3"/>
       <c r="AF233" s="1" t="s">
         <v>106</v>
       </c>
@@ -53101,13 +52995,13 @@
         <v>19</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BG233" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>981</v>
@@ -53119,7 +53013,7 @@
         <v>105</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>120</v>
@@ -53137,16 +53031,16 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="CD233" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2945</v>
       </c>
-      <c r="CD233" s="1" t="s">
+      <c r="CG233" s="1" t="s">
         <v>2946</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="CG233" s="1" t="s">
-        <v>2948</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>986</v>
@@ -53187,13 +53081,13 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N234" s="1" t="s">
         <v>2949</v>
-      </c>
-      <c r="L234" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2951</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>100</v>
@@ -53229,7 +53123,7 @@
         <v>43403</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="AE234" s="3">
         <v>43700</v>
@@ -53283,7 +53177,7 @@
         <v>101</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="BB234" s="1">
         <v>12</v>
@@ -53292,13 +53186,13 @@
         <v>19</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="BG234" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>116</v>
@@ -53307,7 +53201,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>120</v>
@@ -53325,16 +53219,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="CD234" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>128</v>
@@ -53375,13 +53269,13 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="N235" s="1" t="s">
         <v>2959</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2961</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>100</v>
@@ -53410,12 +53304,7 @@
       <c r="AA235" s="1">
         <v>0</v>
       </c>
-      <c r="AC235" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD235" s="1" t="s">
-        <v>2962</v>
-      </c>
+      <c r="AC235" s="3"/>
       <c r="AF235" s="1" t="s">
         <v>106</v>
       </c>
@@ -53462,7 +53351,7 @@
         <v>101</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BB235" s="1">
         <v>12</v>
@@ -53471,16 +53360,16 @@
         <v>19</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="BG235" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BI235" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BJ235" s="1" t="s">
         <v>184</v>
@@ -53495,13 +53384,13 @@
         <v>217</v>
       </c>
       <c r="BR235" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="BS235" s="3">
         <v>35125</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>120</v>
@@ -53519,19 +53408,19 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CD235" s="1" t="s">
         <v>123</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CH235" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="CI235" s="1" t="s">
         <v>190</v>
@@ -53569,13 +53458,13 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
@@ -53659,7 +53548,7 @@
         <v>19</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="BG236" s="1" t="s">
         <v>113</v>
@@ -53668,7 +53557,7 @@
         <v>116</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>120</v>
@@ -53686,13 +53575,13 @@
         <v>92</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="CG236" s="1" t="s">
         <v>128</v>
@@ -53736,13 +53625,13 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -53826,7 +53715,7 @@
         <v>19</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>113</v>
@@ -53835,7 +53724,7 @@
         <v>116</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>120</v>
@@ -53856,10 +53745,10 @@
         <v>562</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CG237" s="1" t="s">
         <v>128</v>
@@ -53903,16 +53792,16 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -53999,19 +53888,19 @@
         <v>19</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>120</v>
@@ -54029,16 +53918,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="CD238" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="CE238" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="CG238" s="1" t="s">
         <v>2994</v>
-      </c>
-      <c r="CD238" s="1" t="s">
-        <v>2995</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>2996</v>
-      </c>
-      <c r="CG238" s="1" t="s">
-        <v>2997</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>128</v>
@@ -54079,13 +53968,13 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -54172,19 +54061,19 @@
         <v>19</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>120</v>
@@ -54205,13 +54094,13 @@
         <v>1275</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>128</v>
@@ -54246,7 +54135,7 @@
         <v>94</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>96</v>
@@ -54255,10 +54144,10 @@
         <v>248</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N240" s="1" t="s">
         <v>250</v>
@@ -54288,7 +54177,7 @@
         <v>42582</v>
       </c>
       <c r="AD240" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="AF240" s="1" t="s">
         <v>106</v>
@@ -54345,13 +54234,13 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BI240" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>116</v>
@@ -54396,10 +54285,10 @@
         <v>260</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>128</v>
@@ -54419,7 +54308,7 @@
         <v>226</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>92</v>
@@ -54437,16 +54326,16 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="Q241" s="3">
         <v>17060</v>
@@ -54479,13 +54368,13 @@
         <v>42628</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG241" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="AH241" s="1" t="s">
         <v>136</v>
@@ -54530,22 +54419,22 @@
         <v>101</v>
       </c>
       <c r="AZ241" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="BB241" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC241" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD241" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="BH241" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>3022</v>
-      </c>
-      <c r="BB241" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC241" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD241" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="BH241" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>3025</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>116</v>
@@ -54554,7 +54443,7 @@
         <v>105</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>120</v>
@@ -54563,7 +54452,7 @@
         <v>0</v>
       </c>
       <c r="BZ241" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="CA241" s="1" t="s">
         <v>122</v>
@@ -54578,13 +54467,13 @@
         <v>124</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>128</v>
@@ -54604,7 +54493,7 @@
         <v>226</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>101</v>
@@ -54622,16 +54511,16 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="Q242" s="3">
         <v>26864</v>
@@ -54661,7 +54550,7 @@
         <v>42735</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="AF242" s="1" t="s">
         <v>106</v>
@@ -54715,10 +54604,10 @@
         <v>0</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>116</v>
@@ -54730,13 +54619,13 @@
         <v>217</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BS242" s="3">
         <v>102</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>120</v>
@@ -54748,7 +54637,7 @@
         <v>110</v>
       </c>
       <c r="BZ242" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CA242" s="1" t="s">
         <v>122</v>
@@ -54757,16 +54646,16 @@
         <v>101</v>
       </c>
       <c r="CC242" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="CD242" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="CE242" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="CG242" s="1" t="s">
         <v>3040</v>
-      </c>
-      <c r="CD242" s="1" t="s">
-        <v>3041</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>3042</v>
-      </c>
-      <c r="CG242" s="1" t="s">
-        <v>3043</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>128</v>
@@ -54810,10 +54699,10 @@
         <v>1904</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N243" s="1" t="s">
         <v>1906</v>
@@ -54846,7 +54735,7 @@
         <v>39800</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>232</v>
@@ -54900,10 +54789,10 @@
         <v>0</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>116</v>
@@ -54954,7 +54843,7 @@
         <v>1912</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>128</v>
@@ -54977,7 +54866,7 @@
         <v>90</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>101</v>
@@ -54989,22 +54878,22 @@
         <v>94</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="Q244" s="3">
         <v>17470</v>
@@ -55034,7 +54923,7 @@
         <v>43100</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>106</v>
@@ -55091,10 +54980,10 @@
         <v>0</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>116</v>
@@ -55103,7 +54992,7 @@
         <v>105</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>120</v>
@@ -55127,16 +55016,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>128</v>
@@ -55177,16 +55066,16 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="Q245" s="3">
         <v>23356</v>
@@ -55213,7 +55102,7 @@
         <v>43105</v>
       </c>
       <c r="AD245" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="AF245" s="1" t="s">
         <v>106</v>
@@ -55267,10 +55156,10 @@
         <v>0</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>116</v>
@@ -55282,13 +55171,13 @@
         <v>102</v>
       </c>
       <c r="BR245" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BS245" s="3">
         <v>34412</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>120</v>
@@ -55306,16 +55195,16 @@
         <v>101</v>
       </c>
       <c r="CC245" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CD245" s="1" t="s">
         <v>2396</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>128</v>
@@ -55356,16 +55245,16 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="Q246" s="3">
         <v>17726</v>
@@ -55398,7 +55287,7 @@
         <v>43312</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>232</v>
@@ -55449,7 +55338,7 @@
         <v>101</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BB246" s="1">
         <v>0</v>
@@ -55458,10 +55347,10 @@
         <v>0</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>116</v>
@@ -55470,7 +55359,7 @@
         <v>105</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>120</v>
@@ -55488,16 +55377,16 @@
         <v>101</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CE246" s="1" t="s">
         <v>930</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>128</v>
@@ -55520,7 +55409,7 @@
         <v>90</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>92</v>
@@ -55532,22 +55421,22 @@
         <v>94</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="Q247" s="3">
         <v>17041</v>
@@ -55574,7 +55463,7 @@
         <v>42735</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>106</v>
@@ -55631,10 +55520,10 @@
         <v>0</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>116</v>
@@ -55643,7 +55532,7 @@
         <v>105</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>120</v>
@@ -55655,7 +55544,7 @@
         <v>110</v>
       </c>
       <c r="BZ247" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="CA247" s="1" t="s">
         <v>122</v>
@@ -55664,16 +55553,16 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3086</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3087</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3088</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3089</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>128</v>
@@ -55714,16 +55603,16 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="Q248" s="3">
         <v>30147</v>
@@ -55746,17 +55635,12 @@
       <c r="AA248" s="1">
         <v>0</v>
       </c>
-      <c r="AC248" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>2842</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AF248" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG248" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="AH248" s="1" t="s">
         <v>378</v>
@@ -55804,10 +55688,10 @@
         <v>0</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>116</v>
@@ -55819,13 +55703,13 @@
         <v>102</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BS248" s="3">
         <v>37124</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>120</v>
@@ -55843,16 +55727,16 @@
         <v>101</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>1187</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>128</v>
@@ -55893,16 +55777,16 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="Q249" s="3">
         <v>17821</v>
@@ -55938,7 +55822,7 @@
         <v>43388</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>106</v>
@@ -55989,7 +55873,7 @@
         <v>101</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BB249" s="1">
         <v>0</v>
@@ -55998,10 +55882,10 @@
         <v>0</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>116</v>
@@ -56010,7 +55894,7 @@
         <v>105</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>120</v>
@@ -56028,16 +55912,16 @@
         <v>101</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CE249" s="1" t="s">
         <v>509</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>128</v>
@@ -56051,10 +55935,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1282</v>
@@ -56069,7 +55953,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1282</v>
@@ -56078,13 +55962,13 @@
         <v>803</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -56138,7 +56022,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -56171,19 +56055,19 @@
         <v>19</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>120</v>
@@ -56201,16 +56085,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="CD250" s="1" t="s">
         <v>304</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>128</v>
@@ -56224,10 +56108,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1282</v>
@@ -56242,7 +56126,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1282</v>
@@ -56251,13 +56135,13 @@
         <v>803</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56308,7 +56192,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -56344,19 +56228,19 @@
         <v>19</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>120</v>
@@ -56383,10 +56267,10 @@
         <v>1111</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CG251" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>128</v>
@@ -56400,10 +56284,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1282</v>
@@ -56418,7 +56302,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1282</v>
@@ -56427,13 +56311,13 @@
         <v>803</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -56484,7 +56368,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -56520,19 +56404,19 @@
         <v>19</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>120</v>
@@ -56553,16 +56437,16 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3138</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3139</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3140</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3141</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>128</v>
@@ -56576,10 +56460,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1282</v>
@@ -56594,7 +56478,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1282</v>
@@ -56603,13 +56487,13 @@
         <v>803</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -56696,19 +56580,19 @@
         <v>19</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>120</v>
@@ -56729,7 +56613,7 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>603</v>
@@ -56738,7 +56622,7 @@
         <v>509</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>128</v>
@@ -56752,10 +56636,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1282</v>
@@ -56770,7 +56654,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1282</v>
@@ -56779,13 +56663,13 @@
         <v>803</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -56839,7 +56723,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -56875,19 +56759,19 @@
         <v>19</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>120</v>
@@ -56911,13 +56795,13 @@
         <v>493</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>128</v>
@@ -56931,10 +56815,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1282</v>
@@ -56949,7 +56833,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1282</v>
@@ -56958,13 +56842,13 @@
         <v>803</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -57051,19 +56935,19 @@
         <v>19</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>120</v>
@@ -57084,16 +56968,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>614</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>128</v>
@@ -57107,10 +56991,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1282</v>
@@ -57125,7 +57009,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1282</v>
@@ -57134,13 +57018,13 @@
         <v>803</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -57176,7 +57060,7 @@
         <v>106</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>1284</v>
@@ -57194,7 +57078,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -57230,19 +57114,19 @@
         <v>19</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>120</v>
@@ -57263,16 +57147,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>128</v>
@@ -57286,10 +57170,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1282</v>
@@ -57304,7 +57188,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1282</v>
@@ -57313,13 +57197,13 @@
         <v>803</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -57373,7 +57257,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="AO257" s="1">
         <v>0</v>
@@ -57409,19 +57293,19 @@
         <v>19</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>120</v>
@@ -57445,13 +57329,13 @@
         <v>1021</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>128</v>
@@ -57465,10 +57349,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1282</v>
@@ -57483,7 +57367,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1282</v>
@@ -57492,13 +57376,13 @@
         <v>803</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -57552,7 +57436,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -57588,19 +57472,19 @@
         <v>19</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>120</v>
@@ -57627,10 +57511,10 @@
         <v>2207</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CG258" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>128</v>
@@ -57644,10 +57528,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1282</v>
@@ -57662,7 +57546,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1282</v>
@@ -57671,13 +57555,13 @@
         <v>803</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="L259" s="1" t="s">
         <v>2340</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -57713,7 +57597,7 @@
         <v>106</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="AH259" s="1" t="s">
         <v>1284</v>
@@ -57728,7 +57612,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -57761,19 +57645,19 @@
         <v>19</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>120</v>
@@ -57791,16 +57675,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3203</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3204</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3205</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3206</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>128</v>
@@ -57814,10 +57698,10 @@
         <v>87</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1282</v>
@@ -57832,7 +57716,7 @@
         <v>93</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>1282</v>
@@ -57841,13 +57725,13 @@
         <v>803</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="L260" s="1" t="s">
         <v>2350</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -57931,19 +57815,19 @@
         <v>19</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>120</v>
@@ -57964,16 +57848,16 @@
         <v>2261</v>
       </c>
       <c r="CC260" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="CD260" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="CE260" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="CG260" s="1" t="s">
         <v>3212</v>
-      </c>
-      <c r="CD260" s="1" t="s">
-        <v>3213</v>
-      </c>
-      <c r="CE260" s="1" t="s">
-        <v>3214</v>
-      </c>
-      <c r="CG260" s="1" t="s">
-        <v>3215</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>128</v>
@@ -57987,10 +57871,10 @@
         <v>87</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1282</v>
@@ -58005,7 +57889,7 @@
         <v>93</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1282</v>
@@ -58014,13 +57898,13 @@
         <v>803</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -58104,19 +57988,19 @@
         <v>19</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>120</v>
@@ -58137,13 +58021,13 @@
         <v>1228</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>128</v>
@@ -58157,10 +58041,10 @@
         <v>87</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1282</v>
@@ -58175,7 +58059,7 @@
         <v>93</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1282</v>
@@ -58184,13 +58068,13 @@
         <v>803</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -58241,7 +58125,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -58277,19 +58161,19 @@
         <v>19</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>120</v>
@@ -58310,16 +58194,16 @@
         <v>101</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>128</v>
@@ -58333,10 +58217,10 @@
         <v>87</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1282</v>
@@ -58351,7 +58235,7 @@
         <v>93</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1282</v>
@@ -58360,13 +58244,13 @@
         <v>803</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -58420,7 +58304,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -58456,19 +58340,19 @@
         <v>19</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>120</v>
@@ -58489,16 +58373,16 @@
         <v>101</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3240</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3243</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>128</v>
@@ -58512,10 +58396,10 @@
         <v>87</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1282</v>
@@ -58530,7 +58414,7 @@
         <v>93</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1282</v>
@@ -58539,13 +58423,13 @@
         <v>803</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
@@ -58599,7 +58483,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="AO264" s="1">
         <v>0</v>
@@ -58635,19 +58519,19 @@
         <v>19</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>120</v>
@@ -58668,16 +58552,16 @@
         <v>101</v>
       </c>
       <c r="CC264" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="CD264" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="CE264" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="CG264" s="1" t="s">
         <v>3250</v>
-      </c>
-      <c r="CD264" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="CE264" s="1" t="s">
-        <v>3252</v>
-      </c>
-      <c r="CG264" s="1" t="s">
-        <v>3253</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>128</v>
@@ -58691,10 +58575,10 @@
         <v>87</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1282</v>
@@ -58709,7 +58593,7 @@
         <v>93</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1282</v>
@@ -58718,13 +58602,13 @@
         <v>803</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -58811,19 +58695,19 @@
         <v>19</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>120</v>
@@ -58844,16 +58728,16 @@
         <v>101</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="CE265" s="1" t="s">
         <v>202</v>
       </c>
       <c r="CG265" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>128</v>
@@ -58867,10 +58751,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1282</v>
@@ -58885,7 +58769,7 @@
         <v>93</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1282</v>
@@ -58894,13 +58778,13 @@
         <v>803</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -58954,7 +58838,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -58990,25 +58874,25 @@
         <v>19</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>120</v>
       </c>
       <c r="BW266" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BX266" s="1">
         <v>0</v>
@@ -59026,16 +58910,16 @@
         <v>101</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="CD266" s="1" t="s">
         <v>1292</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="CG266" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>128</v>
@@ -59049,10 +58933,10 @@
         <v>87</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1282</v>
@@ -59067,7 +58951,7 @@
         <v>93</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1282</v>
@@ -59076,13 +58960,13 @@
         <v>803</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -59133,7 +59017,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -59169,19 +59053,19 @@
         <v>19</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>120</v>
@@ -59202,16 +59086,16 @@
         <v>101</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="CG267" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>128</v>
@@ -59225,10 +59109,10 @@
         <v>87</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1282</v>
@@ -59243,7 +59127,7 @@
         <v>93</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1282</v>
@@ -59252,13 +59136,13 @@
         <v>803</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
@@ -59285,7 +59169,7 @@
         <v>0</v>
       </c>
       <c r="AG268" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="AH268" s="1" t="s">
         <v>378</v>
@@ -59300,7 +59184,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -59330,19 +59214,19 @@
         <v>19</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>120</v>
@@ -59360,16 +59244,16 @@
         <v>101</v>
       </c>
       <c r="CC268" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="CD268" s="1" t="s">
         <v>304</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="CG268" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>128</v>
@@ -59383,10 +59267,10 @@
         <v>87</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1282</v>
@@ -59401,7 +59285,7 @@
         <v>93</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1282</v>
@@ -59410,13 +59294,13 @@
         <v>803</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -59500,19 +59384,19 @@
         <v>19</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>120</v>
@@ -59530,16 +59414,16 @@
         <v>101</v>
       </c>
       <c r="CC269" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="CD269" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="CE269" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="CG269" s="1" t="s">
         <v>3298</v>
-      </c>
-      <c r="CD269" s="1" t="s">
-        <v>3299</v>
-      </c>
-      <c r="CE269" s="1" t="s">
-        <v>3300</v>
-      </c>
-      <c r="CG269" s="1" t="s">
-        <v>3301</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>128</v>
@@ -59553,10 +59437,10 @@
         <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1282</v>
@@ -59571,7 +59455,7 @@
         <v>93</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1282</v>
@@ -59580,13 +59464,13 @@
         <v>803</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
@@ -59673,19 +59557,19 @@
         <v>19</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>120</v>
@@ -59703,16 +59587,16 @@
         <v>101</v>
       </c>
       <c r="CC270" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="CD270" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="CG270" s="1" t="s">
         <v>3308</v>
-      </c>
-      <c r="CD270" s="1" t="s">
-        <v>3309</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3310</v>
-      </c>
-      <c r="CG270" s="1" t="s">
-        <v>3311</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>128</v>
@@ -59726,10 +59610,10 @@
         <v>87</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1282</v>
@@ -59744,7 +59628,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1282</v>
@@ -59753,13 +59637,13 @@
         <v>803</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
@@ -59768,7 +59652,7 @@
         <v>101</v>
       </c>
       <c r="Q271" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="R271" s="1" t="s">
         <v>134</v>
@@ -59810,7 +59694,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -59843,19 +59727,19 @@
         <v>19</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>120</v>
@@ -59873,16 +59757,16 @@
         <v>101</v>
       </c>
       <c r="CC271" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="CD271" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="CE271" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="CG271" s="1" t="s">
         <v>3319</v>
-      </c>
-      <c r="CD271" s="1" t="s">
-        <v>3320</v>
-      </c>
-      <c r="CE271" s="1" t="s">
-        <v>3321</v>
-      </c>
-      <c r="CG271" s="1" t="s">
-        <v>3322</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>128</v>
@@ -59892,6 +59776,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI271" xr:uid="{25273266-1662-4953-886E-0D60AF7BA8ED}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>